--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -86,40 +86,34 @@
     <t>需求分析师</t>
   </si>
   <si>
+    <t>概要设计</t>
+  </si>
+  <si>
+    <t>设计组</t>
+  </si>
+  <si>
+    <t>详细设计</t>
+  </si>
+  <si>
+    <t>PC端开发</t>
+  </si>
+  <si>
+    <t>开发组</t>
+  </si>
+  <si>
     <t>3周</t>
   </si>
   <si>
-    <t>概要设计</t>
-  </si>
-  <si>
-    <t>设计组</t>
-  </si>
-  <si>
-    <t>4周</t>
-  </si>
-  <si>
-    <t>详细设计</t>
+    <t>手机端开发</t>
   </si>
   <si>
     <t>2周</t>
   </si>
   <si>
-    <t>核心功能开发</t>
-  </si>
-  <si>
-    <t>开发组</t>
-  </si>
-  <si>
-    <t>6周</t>
-  </si>
-  <si>
-    <t>PC端开发</t>
-  </si>
-  <si>
-    <t>手机端开发</t>
-  </si>
-  <si>
     <t>接口联调</t>
+  </si>
+  <si>
+    <t>报表更改</t>
   </si>
   <si>
     <t>单元测试</t>
@@ -325,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +352,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -716,7 +722,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,16 +746,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -758,89 +764,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,22 +886,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1423,10 +1468,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16:V17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1595,7 +1640,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1621,13 +1666,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1653,13 +1698,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1681,17 +1726,17 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A8" s="6">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1713,113 +1758,113 @@
       <c r="V8" s="9"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A9" s="10">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
+      <c r="A12" s="13">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="14"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A12" s="10">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1841,17 +1886,17 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1873,17 +1918,17 @@
       <c r="V13" s="9"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A14" s="10">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="13">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>24</v>
+      <c r="C14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1905,17 +1950,17 @@
       <c r="V14" s="9"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>24</v>
+      <c r="A15" s="15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1937,17 +1982,17 @@
       <c r="V15" s="9"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A16" s="10">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>24</v>
+      <c r="A16" s="13">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1969,327 +2014,351 @@
       <c r="V16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
+      <c r="A17" s="15">
+        <v>14</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A28" s="10"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="249">
+  <mergeCells count="258">
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:N2"/>
@@ -2537,6 +2606,15 @@
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="S29:T29"/>
     <mergeCell ref="U29:V29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A2:B3"/>
   </mergeCells>
